--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artiom/Documents/Library/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D99BC57A-0811-2D48-A78F-55F12FDE3182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD516349-D774-B84A-9C6C-5D52B562F3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="28240" windowHeight="16500" xr2:uid="{0062F99A-3654-7F4E-B7B5-450A03F4F0F2}"/>
+    <workbookView xWindow="9180" yWindow="3820" windowWidth="28240" windowHeight="16500" xr2:uid="{0062F99A-3654-7F4E-B7B5-450A03F4F0F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>No.</t>
   </si>
@@ -80,16 +80,38 @@
   </si>
   <si>
     <t>Teatru. Opere complecte</t>
+  </si>
+  <si>
+    <t>p.63</t>
+  </si>
+  <si>
+    <t>p.92</t>
+  </si>
+  <si>
+    <t>p.121</t>
+  </si>
+  <si>
+    <t>Ion Dulce</t>
+  </si>
+  <si>
+    <t>Tudor Boico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -142,8 +164,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AF8A66A-3EC3-2945-ABE9-2EE2E0DD4C21}" name="Таблица1" displayName="Таблица1" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4" xr:uid="{8FCFAF38-B7C1-D54B-B41A-DBBE39757800}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AF8A66A-3EC3-2945-ABE9-2EE2E0DD4C21}" name="Таблица1" displayName="Таблица1" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{8FCFAF38-B7C1-D54B-B41A-DBBE39757800}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AF04649F-7CB4-A249-900E-B8D3996F80D2}" name="No."/>
     <tableColumn id="2" xr3:uid="{A995ADF6-94F3-F74D-8D54-48C6821B5C60}" name="data" dataDxfId="0"/>
@@ -452,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCFAF38-B7C1-D54B-B41A-DBBE39757800}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,7 +555,59 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45194</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45195</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45196</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artiom/Documents/Library/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD516349-D774-B84A-9C6C-5D52B562F3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B3F1D1-120E-284E-A783-B5C25F7DC3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9180" yWindow="3820" windowWidth="28240" windowHeight="16500" xr2:uid="{0062F99A-3654-7F4E-B7B5-450A03F4F0F2}"/>
   </bookViews>
@@ -126,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -134,21 +134,293 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -164,14 +436,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AF8A66A-3EC3-2945-ABE9-2EE2E0DD4C21}" name="Таблица1" displayName="Таблица1" ref="A1:E7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AF8A66A-3EC3-2945-ABE9-2EE2E0DD4C21}" name="Таблица1" displayName="Таблица1" ref="A1:E7" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:E7" xr:uid="{8FCFAF38-B7C1-D54B-B41A-DBBE39757800}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AF04649F-7CB4-A249-900E-B8D3996F80D2}" name="No."/>
-    <tableColumn id="2" xr3:uid="{A995ADF6-94F3-F74D-8D54-48C6821B5C60}" name="data" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{CB5F0163-F9C2-8745-B0E7-A3922AD86AD0}" name="Autorul"/>
-    <tableColumn id="4" xr3:uid="{0500020C-0D72-474B-8205-4936D410F912}" name="Denumirea operei"/>
-    <tableColumn id="5" xr3:uid="{40E7D6F8-B52A-2C44-80B6-016A7827AC79}" name="Pozitia curenta"/>
+    <tableColumn id="1" xr3:uid="{AF04649F-7CB4-A249-900E-B8D3996F80D2}" name="No." dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A995ADF6-94F3-F74D-8D54-48C6821B5C60}" name="data" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{CB5F0163-F9C2-8745-B0E7-A3922AD86AD0}" name="Autorul" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0500020C-0D72-474B-8205-4936D410F912}" name="Denumirea operei" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{40E7D6F8-B52A-2C44-80B6-016A7827AC79}" name="Pozitia curenta" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -477,7 +749,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,24 +760,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -517,12 +789,12 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -534,12 +806,12 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -551,12 +823,12 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -568,12 +840,12 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -585,24 +857,24 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="9">
         <v>45196</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
     </row>
